--- a/CORE JAVA COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
+++ b/CORE JAVA COURSE__CodeWithHarry_Lectures_Progress_Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\04_CodeWithHarry\CoreJavaByCWH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89126D0F-8EF0-4346-AFAC-D3EED99EA794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D76285-DF77-4F13-8A5B-63B86322C8F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="C1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
         <v>6</v>
       </c>
       <c r="F14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
@@ -918,7 +918,7 @@
         <v>7</v>
       </c>
       <c r="F15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="3:13" ht="33.75" x14ac:dyDescent="0.5">
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="F16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="4:6" ht="33.75" x14ac:dyDescent="0.5">
